--- a/biology/Zoologie/Chabertia_(nématode)/Chabertia_(nématode).xlsx
+++ b/biology/Zoologie/Chabertia_(nématode)/Chabertia_(nématode).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chabertia_(n%C3%A9matode)</t>
+          <t>Chabertia_(nématode)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chabertia est un genre de nématodes de la famille des Strongylidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chabertia_(n%C3%A9matode)</t>
+          <t>Chabertia_(nématode)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (28 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (28 mars 2023) :
 Chabertia erschowi Xiong &amp; Kong, 1956
 Chabertia ovina Railliet &amp; Henry, 1909</t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chabertia_(n%C3%A9matode)</t>
+          <t>Chabertia_(nématode)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chabertia Railliet &amp; Henry, 1909[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chabertia Railliet &amp; Henry, 1909.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chabertia_(n%C3%A9matode)</t>
+          <t>Chabertia_(nématode)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Chabertia, a été donné en l'honneur de Philibert Chabert (1737-1814), vétérinaire français, professeur puis successivement directeur de l'École vétérinaire d'Alfort et inspecteur des Écoles vétérinaires.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chabertia_(n%C3%A9matode)</t>
+          <t>Chabertia_(nématode)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Railliet A. et Henry A., 1909, « Sur la classification des Strongylidae. I. Metastrongylinae », Comptes rendus hebdomadaires des séances et mémoires de la Société de biologie, vol. 66, p. 85-88 (lire en ligne).</t>
         </is>
